--- a/src/lib/scripts/seed-data/production/angels.xlsx
+++ b/src/lib/scripts/seed-data/production/angels.xlsx
@@ -1,22 +1,198 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10608"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B549F5F1-6051-4848-81DB-B59E025695D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <bookViews>
-    <workbookView xWindow="0" yWindow="700" windowWidth="27040" windowHeight="15700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-  </bookViews>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <sheets>
-    <sheet name="angels template" sheetId="1" r:id="rId1"/>
-    <sheet name="ValidationData" sheetId="2" state="hidden" r:id="rId2"/>
+    <sheet sheetId="1" name="angels template" state="visible" r:id="rId4"/>
+    <sheet sheetId="2" name="ValidationData" state="hidden" r:id="rId5"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Author</author>
+  </authors>
+  <commentList>
+    <comment ref="I1" authorId="0">
+      <text>
+        <r>
+          <t xml:space="preserve">Possible values:
+- 1K-10K
+- 10K-25K
+- 25K-50K
+- 50K-100K
+- 100K-250K
+- 250K-500K
+- 500K-1M
+- 1M+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J1" authorId="0">
+      <text>
+        <r>
+          <t xml:space="preserve">Possible values:
+- Pre-seed
+- Seed
+- Series A
+- Series B
+- Series C
+- Growth
+- All</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K1" authorId="0">
+      <text>
+        <r>
+          <t xml:space="preserve">Possible values:
+- B2B SaaS
+- Fintech
+- Healthtech
+- AI/ML
+- Deep tech
+- Climate tech
+- Consumer
+- E-commerce
+- Marketplace
+- Gaming
+- Web3
+- Developer tools
+- Cybersecurity
+- Logistics
+- AdTech
+- PropTech
+- InsurTech
+- Agriculture
+- Automotive
+- Biotechnology
+- Construction
+- Consulting
+- Consumer Goods
+- Education
+- Energy
+- Entertainment
+- Environmental Services
+- Fashion
+- Food &amp; Beverage
+- Government
+- Healthcare Services
+- Hospitality
+- Human Resources
+- Insurance
+- Legal
+- Manufacturing
+- Media
+- Non-profit
+- Pharmaceuticals
+- Real Estate
+- Retail
+- Telecommunications
+- Transportation
+- Utilities
+- Other</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L1" authorId="0">
+      <text>
+        <r>
+          <t xml:space="preserve">Possible values:
+- Global
+- North America
+- South America
+- LATAM
+- Europe
+- Western Europe
+- Eastern Europe
+- Continental Europe
+- Middle East
+- Africa
+- Asia
+- East Asia
+- South Asia
+- South East Asia
+- Oceania
+- EMEA
+- Emerging Markets</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M1" authorId="0">
+      <text>
+        <r>
+          <t xml:space="preserve">Possible values:
+- hands-on
+- passive
+- advisory
+- network-focused</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P1" authorId="0">
+      <text>
+        <r>
+          <t xml:space="preserve">Possible values:
+- 1-3 days
+- 1 week
+- 2 weeks
+- 1 month
+- 2+ months</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q1" authorId="0">
+      <text>
+        <r>
+          <t xml:space="preserve">Possible values:
+- form
+- email
+- other</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="T1" authorId="0">
+      <text>
+        <r>
+          <t xml:space="preserve">Possible values:
+- simple
+- standard
+- comprehensive</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="U1" authorId="0">
+      <text>
+        <r>
+          <t xml:space="preserve">Possible values:
+- pitch_deck
+- video
+- financial_projections
+- business_plan
+- traction_data</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Z1" authorId="0">
+      <text>
+        <r>
+          <t xml:space="preserve">Possible values:
+- FREE
+- PRO
+- MAX</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="125">
   <si>
     <t>first_name</t>
   </si>
@@ -396,42 +572,25 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="14"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="1"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -446,16 +605,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -794,22 +946,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BK2"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AR1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AA1" sqref="AA1:BK1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Z1000"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
-    <col min="1" max="26" width="25" style="2" customWidth="1"/>
-    <col min="27" max="63" width="8.83203125" style="4"/>
-    <col min="64" max="16384" width="8.83203125" style="2"/>
+    <col min="1" max="26" width="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:63" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -888,157 +1032,1081 @@
       <c r="Z1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="3"/>
-      <c r="AB1" s="3"/>
-      <c r="AC1" s="3"/>
-      <c r="AD1" s="3"/>
-      <c r="AE1" s="3"/>
-      <c r="AF1" s="3"/>
-      <c r="AG1" s="3"/>
-      <c r="AH1" s="3"/>
-      <c r="AI1" s="3"/>
-      <c r="AJ1" s="3"/>
-      <c r="AK1" s="3"/>
-      <c r="AL1" s="3"/>
-      <c r="AM1" s="3"/>
-      <c r="AN1" s="3"/>
-      <c r="AO1" s="3"/>
-      <c r="AP1" s="3"/>
-      <c r="AQ1" s="3"/>
-      <c r="AR1" s="3"/>
-      <c r="AS1" s="3"/>
-      <c r="AT1" s="3"/>
-      <c r="AU1" s="3"/>
-      <c r="AV1" s="3"/>
-      <c r="AW1" s="3"/>
-      <c r="AX1" s="3"/>
-      <c r="AY1" s="3"/>
-      <c r="AZ1" s="3"/>
-      <c r="BA1" s="3"/>
-      <c r="BB1" s="3"/>
-      <c r="BC1" s="3"/>
-      <c r="BD1" s="3"/>
-      <c r="BE1" s="3"/>
-      <c r="BF1" s="3"/>
-      <c r="BG1" s="3"/>
-      <c r="BH1" s="3"/>
-      <c r="BI1" s="3"/>
-      <c r="BJ1" s="3"/>
-      <c r="BK1" s="3"/>
-    </row>
-    <row r="2" spans="1:63" x14ac:dyDescent="0.25">
-      <c r="I2" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="T2" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="U2" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="Z2" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
+    </row>
+    <row r="2" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="17" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="18" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="19" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="20" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="21" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="23" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="33" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="34" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="35" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="36" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="37" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="38" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="39" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="40" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="41" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="42" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="43" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="44" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="45" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="46" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="47" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="48" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="49" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="50" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="51" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="52" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="53" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="54" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="55" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="56" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="57" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="58" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="59" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="60" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="61" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="62" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="63" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="64" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="65" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="66" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="67" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="68" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="69" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="70" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="71" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="72" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="73" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="74" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="75" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="76" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="77" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="78" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="79" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="80" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="81" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="82" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="83" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="84" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="85" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="86" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="87" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="88" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="89" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="90" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="91" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="92" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="93" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="94" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="95" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="96" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="97" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="98" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="99" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="100" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="101" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="102" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="103" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="104" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="105" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="106" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="107" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="108" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="109" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="110" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="111" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="112" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="113" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="114" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="115" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="116" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="117" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="118" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="119" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="120" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="121" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="122" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="123" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="124" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="125" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="126" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="127" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="128" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="129" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="130" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="131" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="132" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="133" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="134" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="135" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="136" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="137" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="138" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="139" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="140" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="141" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="142" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="143" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="144" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="145" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="146" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="147" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="148" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="149" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="150" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="151" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="152" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="153" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="154" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="155" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="156" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="157" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="158" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="159" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="160" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="161" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="162" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="163" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="164" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="165" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="166" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="167" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="168" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="169" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="170" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="171" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="172" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="173" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="174" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="175" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="176" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="177" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="178" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="179" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="180" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="181" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="182" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="183" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="184" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="185" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="186" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="187" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="188" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="189" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="190" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="191" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="192" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="193" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="194" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="195" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="196" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="197" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="198" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="199" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="200" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="201" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="202" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="203" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="204" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="205" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="206" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="207" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="208" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="209" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="210" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="211" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="212" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="213" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="214" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="215" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="216" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="217" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="218" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="219" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="220" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="221" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="222" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="223" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="224" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="225" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="226" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="227" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="228" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="229" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="230" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="231" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="232" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="233" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="234" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="235" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="236" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="237" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="238" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="239" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="240" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="241" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="242" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="243" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="244" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="245" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="246" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="247" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="248" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="249" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="250" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="251" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="252" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="253" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="254" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="255" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="256" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="257" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="258" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="259" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="260" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="261" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="262" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="263" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="264" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="265" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="266" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="267" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="268" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="269" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="270" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="271" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="272" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="273" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="274" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="275" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="276" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="277" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="278" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="279" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="280" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="281" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="282" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="283" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="284" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="285" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="286" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="287" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="288" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="289" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="290" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="291" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="292" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="293" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="294" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="295" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="296" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="297" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="298" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="299" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="300" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="301" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="302" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="303" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="304" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="305" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="306" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="307" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="308" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="309" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="310" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="311" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="312" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="313" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="314" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="315" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="316" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="317" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="318" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="319" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="320" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="321" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="322" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="323" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="324" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="325" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="326" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="327" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="328" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="329" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="330" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="331" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="332" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="333" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="334" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="335" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="336" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="337" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="338" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="339" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="340" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="341" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="342" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="343" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="344" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="345" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="346" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="347" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="348" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="349" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="350" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="351" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="352" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="353" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="354" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="355" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="356" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="357" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="358" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="359" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="360" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="361" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="362" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="363" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="364" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="365" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="366" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="367" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="368" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="369" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="370" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="371" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="372" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="373" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="374" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="375" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="376" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="377" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="378" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="379" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="380" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="381" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="382" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="383" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="384" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="385" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="386" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="387" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="388" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="389" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="390" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="391" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="392" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="393" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="394" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="395" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="396" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="397" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="398" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="399" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="400" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="401" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="402" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="403" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="404" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="405" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="406" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="407" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="408" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="409" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="410" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="411" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="412" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="413" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="414" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="415" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="416" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="417" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="418" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="419" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="420" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="421" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="422" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="423" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="424" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="425" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="426" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="427" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="428" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="429" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="430" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="431" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="432" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="433" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="434" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="435" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="436" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="437" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="438" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="439" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="440" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="441" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="442" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="443" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="444" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="445" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="446" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="447" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="448" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="449" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="450" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="451" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="452" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="453" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="454" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="455" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="456" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="457" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="458" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="459" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="460" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="461" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="462" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="463" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="464" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="465" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="466" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="467" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="468" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="469" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="470" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="471" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="472" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="473" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="474" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="475" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="476" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="477" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="478" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="479" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="480" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="481" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="482" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="483" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="484" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="485" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="486" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="487" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="488" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="489" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="490" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="491" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="492" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="493" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="494" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="495" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="496" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="497" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="498" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="499" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="500" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="501" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="502" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="503" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="504" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="505" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="506" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="507" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="508" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="509" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="510" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="511" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="512" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="513" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="514" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="515" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="516" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="517" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="518" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="519" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="520" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="521" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="522" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="523" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="524" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="525" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="526" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="527" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="528" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="529" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="530" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="531" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="532" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="533" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="534" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="535" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="536" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="537" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="538" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="539" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="540" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="541" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="542" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="543" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="544" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="545" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="546" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="547" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="548" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="549" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="550" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="551" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="552" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="553" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="554" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="555" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="556" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="557" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="558" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="559" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="560" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="561" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="562" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="563" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="564" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="565" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="566" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="567" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="568" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="569" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="570" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="571" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="572" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="573" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="574" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="575" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="576" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="577" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="578" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="579" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="580" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="581" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="582" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="583" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="584" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="585" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="586" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="587" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="588" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="589" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="590" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="591" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="592" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="593" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="594" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="595" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="596" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="597" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="598" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="599" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="600" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="601" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="602" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="603" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="604" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="605" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="606" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="607" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="608" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="609" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="610" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="611" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="612" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="613" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="614" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="615" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="616" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="617" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="618" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="619" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="620" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="621" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="622" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="623" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="624" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="625" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="626" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="627" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="628" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="629" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="630" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="631" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="632" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="633" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="634" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="635" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="636" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="637" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="638" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="639" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="640" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="641" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="642" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="643" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="644" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="645" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="646" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="647" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="648" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="649" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="650" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="651" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="652" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="653" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="654" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="655" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="656" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="657" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="658" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="659" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="660" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="661" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="662" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="663" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="664" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="665" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="666" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="667" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="668" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="669" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="670" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="671" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="672" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="673" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="674" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="675" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="676" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="677" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="678" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="679" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="680" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="681" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="682" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="683" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="684" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="685" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="686" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="687" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="688" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="689" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="690" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="691" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="692" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="693" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="694" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="695" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="696" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="697" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="698" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="699" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="700" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="701" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="702" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="703" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="704" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="705" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="706" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="707" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="708" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="709" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="710" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="711" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="712" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="713" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="714" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="715" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="716" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="717" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="718" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="719" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="720" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="721" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="722" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="723" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="724" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="725" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="726" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="727" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="728" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="729" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="730" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="731" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="732" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="733" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="734" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="735" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="736" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="737" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="738" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="739" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="740" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="741" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="742" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="743" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="744" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="745" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="746" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="747" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="748" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="749" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="750" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="751" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="752" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="753" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="754" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="755" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="756" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="757" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="758" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="759" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="760" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="761" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="762" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="763" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="764" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="765" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="766" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="767" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="768" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="769" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="770" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="771" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="772" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="773" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="774" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="775" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="776" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="777" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="778" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="779" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="780" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="781" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="782" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="783" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="784" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="785" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="786" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="787" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="788" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="789" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="790" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="791" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="792" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="793" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="794" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="795" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="796" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="797" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="798" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="799" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="800" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="801" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="802" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="803" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="804" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="805" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="806" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="807" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="808" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="809" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="810" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="811" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="812" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="813" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="814" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="815" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="816" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="817" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="818" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="819" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="820" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="821" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="822" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="823" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="824" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="825" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="826" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="827" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="828" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="829" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="830" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="831" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="832" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="833" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="834" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="835" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="836" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="837" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="838" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="839" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="840" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="841" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="842" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="843" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="844" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="845" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="846" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="847" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="848" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="849" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="850" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="851" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="852" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="853" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="854" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="855" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="856" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="857" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="858" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="859" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="860" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="861" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="862" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="863" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="864" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="865" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="866" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="867" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="868" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="869" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="870" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="871" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="872" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="873" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="874" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="875" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="876" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="877" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="878" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="879" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="880" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="881" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="882" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="883" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="884" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="885" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="886" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="887" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="888" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="889" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="890" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="891" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="892" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="893" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="894" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="895" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="896" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="897" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="898" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="899" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="900" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="901" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="902" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="903" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="904" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="905" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="906" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="907" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="908" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="909" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="910" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="911" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="912" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="913" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="914" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="915" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="916" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="917" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="918" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="919" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="920" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="921" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="922" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="923" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="924" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="925" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="926" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="927" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="928" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="929" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="930" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="931" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="932" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="933" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="934" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="935" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="936" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="937" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="938" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="939" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="940" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="941" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="942" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="943" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="944" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="945" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="946" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="947" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="948" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="949" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="950" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="951" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="952" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="953" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="954" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="955" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="956" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="957" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="958" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="959" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="960" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="961" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="962" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="963" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="964" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="965" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="966" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="967" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="968" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="969" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="970" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="971" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="972" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="973" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="974" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="975" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="976" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="977" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="978" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="979" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="980" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="981" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="982" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="983" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="984" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="985" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="986" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="987" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="988" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="989" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="990" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="991" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="992" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="993" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="994" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="995" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="996" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="997" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="998" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="999" spans="9:26" x14ac:dyDescent="0.25"/>
+    <row r="1000" spans="9:26" x14ac:dyDescent="0.25"/>
   </sheetData>
+  <dataValidations count="20">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorStyle="stop" errorTitle="Guidance" error="Please select a value from the dropdown list." sqref="I10:I1000">
+      <formula1>ValidationData!$I$1:$I$8</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorStyle="stop" errorTitle="Guidance" error="Please select a value from the dropdown list." sqref="I2:I1000">
+      <formula1>ValidationData!$I$1:$I$8</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorStyle="information" errorTitle="Guidance" error="Select a value from the list, or enter multiple values separated by commas or semicolons." sqref="J10:J1000">
+      <formula1>ValidationData!$J$1:$J$7</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorStyle="information" errorTitle="Guidance" error="Select a value from the list, or enter multiple values separated by commas or semicolons." sqref="J2:J1000">
+      <formula1>ValidationData!$J$1:$J$7</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorStyle="information" errorTitle="Guidance" error="Select a value from the list, or enter multiple values separated by commas or semicolons." sqref="K10:K1000">
+      <formula1>ValidationData!$K$1:$K$45</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorStyle="information" errorTitle="Guidance" error="Select a value from the list, or enter multiple values separated by commas or semicolons." sqref="K2:K1000">
+      <formula1>ValidationData!$K$1:$K$45</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorStyle="information" errorTitle="Guidance" error="Select a value from the list, or enter multiple values separated by commas or semicolons." sqref="L10:L1000">
+      <formula1>ValidationData!$L$1:$L$17</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorStyle="information" errorTitle="Guidance" error="Select a value from the list, or enter multiple values separated by commas or semicolons." sqref="L2:L1000">
+      <formula1>ValidationData!$L$1:$L$17</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorStyle="stop" errorTitle="Guidance" error="Please select a value from the dropdown list." sqref="M10:M1000">
+      <formula1>ValidationData!$M$1:$M$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorStyle="stop" errorTitle="Guidance" error="Please select a value from the dropdown list." sqref="M2:M1000">
+      <formula1>ValidationData!$M$1:$M$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorStyle="stop" errorTitle="Guidance" error="Please select a value from the dropdown list." sqref="P10:P1000">
+      <formula1>ValidationData!$P$1:$P$5</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorStyle="stop" errorTitle="Guidance" error="Please select a value from the dropdown list." sqref="P2:P1000">
+      <formula1>ValidationData!$P$1:$P$5</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorStyle="stop" errorTitle="Guidance" error="Please select a value from the dropdown list." sqref="Q10:Q1000">
+      <formula1>ValidationData!$Q$1:$Q$3</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorStyle="stop" errorTitle="Guidance" error="Please select a value from the dropdown list." sqref="Q2:Q1000">
+      <formula1>ValidationData!$Q$1:$Q$3</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorStyle="stop" errorTitle="Guidance" error="Please select a value from the dropdown list." sqref="T10:T1000">
+      <formula1>ValidationData!$T$1:$T$3</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorStyle="stop" errorTitle="Guidance" error="Please select a value from the dropdown list." sqref="T2:T1000">
+      <formula1>ValidationData!$T$1:$T$3</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorStyle="information" errorTitle="Guidance" error="Select a value from the list, or enter multiple values separated by commas or semicolons." sqref="U10:U1000">
+      <formula1>ValidationData!$U$1:$U$5</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorStyle="information" errorTitle="Guidance" error="Select a value from the list, or enter multiple values separated by commas or semicolons." sqref="U2:U1000">
+      <formula1>ValidationData!$U$1:$U$5</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorStyle="stop" errorTitle="Guidance" error="Please select a value from the dropdown list." sqref="Z10:Z1000">
+      <formula1>ValidationData!$Z$1:$Z$3</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorStyle="stop" errorTitle="Guidance" error="Please select a value from the dropdown list." sqref="Z2:Z1000">
+      <formula1>ValidationData!$Z$1:$Z$3</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="10">
-        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="Invalid Value" error="Please select a value from the dropdown list." xr:uid="{00000000-0002-0000-0000-000000000000}">
-          <x14:formula1>
-            <xm:f>ValidationData!$I$1:$I$8</xm:f>
-          </x14:formula1>
-          <xm:sqref>I2:I1000</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" errorStyle="information" allowBlank="1" errorTitle="Invalid Value" error="You can enter multiple values separated by commas. The list is a guide for available options." xr:uid="{00000000-0002-0000-0000-000002000000}">
-          <x14:formula1>
-            <xm:f>ValidationData!$J$1:$J$7</xm:f>
-          </x14:formula1>
-          <xm:sqref>J2:J1000</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" errorStyle="information" allowBlank="1" errorTitle="Invalid Value" error="You can enter multiple values separated by commas. The list is a guide for available options." xr:uid="{00000000-0002-0000-0000-000004000000}">
-          <x14:formula1>
-            <xm:f>ValidationData!$K$1:$K$45</xm:f>
-          </x14:formula1>
-          <xm:sqref>K2:K1000</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" errorStyle="information" allowBlank="1" errorTitle="Invalid Value" error="You can enter multiple values separated by commas. The list is a guide for available options." xr:uid="{00000000-0002-0000-0000-000006000000}">
-          <x14:formula1>
-            <xm:f>ValidationData!$L$1:$L$17</xm:f>
-          </x14:formula1>
-          <xm:sqref>L2:L1000</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="Invalid Value" error="Please select a value from the dropdown list." xr:uid="{00000000-0002-0000-0000-000008000000}">
-          <x14:formula1>
-            <xm:f>ValidationData!$M$1:$M$4</xm:f>
-          </x14:formula1>
-          <xm:sqref>M2:M1000</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="Invalid Value" error="Please select a value from the dropdown list." xr:uid="{00000000-0002-0000-0000-00000A000000}">
-          <x14:formula1>
-            <xm:f>ValidationData!$P$1:$P$5</xm:f>
-          </x14:formula1>
-          <xm:sqref>P2:P1000</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="Invalid Value" error="Please select a value from the dropdown list." xr:uid="{00000000-0002-0000-0000-00000C000000}">
-          <x14:formula1>
-            <xm:f>ValidationData!$Q$1:$Q$3</xm:f>
-          </x14:formula1>
-          <xm:sqref>Q2:Q1000</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="Invalid Value" error="Please select a value from the dropdown list." xr:uid="{00000000-0002-0000-0000-00000E000000}">
-          <x14:formula1>
-            <xm:f>ValidationData!$T$1:$T$3</xm:f>
-          </x14:formula1>
-          <xm:sqref>T2:T1000</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" errorStyle="information" allowBlank="1" errorTitle="Invalid Value" error="You can enter multiple values separated by commas. The list is a guide for available options." xr:uid="{00000000-0002-0000-0000-000010000000}">
-          <x14:formula1>
-            <xm:f>ValidationData!$U$1:$U$5</xm:f>
-          </x14:formula1>
-          <xm:sqref>U2:U1000</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="Invalid Value" error="Please select a value from the dropdown list." xr:uid="{00000000-0002-0000-0000-000012000000}">
-          <x14:formula1>
-            <xm:f>ValidationData!$Z$1:$Z$3</xm:f>
-          </x14:formula1>
-          <xm:sqref>Z2:Z1000</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="I1:Z45"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
-    <row r="1" spans="9:26" x14ac:dyDescent="0.2">
+    <row r="1" spans="9:26" x14ac:dyDescent="0.25">
       <c r="I1" t="s">
         <v>26</v>
       </c>
@@ -1070,7 +2138,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="9:26" x14ac:dyDescent="0.2">
+    <row r="2" spans="9:26" x14ac:dyDescent="0.25">
       <c r="I2" t="s">
         <v>36</v>
       </c>
@@ -1102,7 +2170,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="9:26" x14ac:dyDescent="0.2">
+    <row r="3" spans="9:26" x14ac:dyDescent="0.25">
       <c r="I3" t="s">
         <v>45</v>
       </c>
@@ -1134,7 +2202,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="4" spans="9:26" x14ac:dyDescent="0.2">
+    <row r="4" spans="9:21" x14ac:dyDescent="0.25">
       <c r="I4" t="s">
         <v>55</v>
       </c>
@@ -1157,7 +2225,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="5" spans="9:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="9:21" x14ac:dyDescent="0.25">
       <c r="I5" t="s">
         <v>62</v>
       </c>
@@ -1177,7 +2245,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="6" spans="9:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I6" t="s">
         <v>68</v>
       </c>
@@ -1191,7 +2259,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="7" spans="9:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I7" t="s">
         <v>72</v>
       </c>
@@ -1205,7 +2273,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="8" spans="9:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I8" t="s">
         <v>76</v>
       </c>
@@ -1216,7 +2284,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="9" spans="9:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="11:12" x14ac:dyDescent="0.25">
       <c r="K9" t="s">
         <v>79</v>
       </c>
@@ -1224,7 +2292,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="10" spans="9:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="11:12" x14ac:dyDescent="0.25">
       <c r="K10" t="s">
         <v>81</v>
       </c>
@@ -1232,7 +2300,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="11" spans="9:26" x14ac:dyDescent="0.2">
+    <row r="11" spans="11:12" x14ac:dyDescent="0.25">
       <c r="K11" t="s">
         <v>83</v>
       </c>
@@ -1240,7 +2308,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="12" spans="9:26" x14ac:dyDescent="0.2">
+    <row r="12" spans="11:12" x14ac:dyDescent="0.25">
       <c r="K12" t="s">
         <v>85</v>
       </c>
@@ -1248,7 +2316,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="13" spans="9:26" x14ac:dyDescent="0.2">
+    <row r="13" spans="11:12" x14ac:dyDescent="0.25">
       <c r="K13" t="s">
         <v>87</v>
       </c>
@@ -1256,7 +2324,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="14" spans="9:26" x14ac:dyDescent="0.2">
+    <row r="14" spans="11:12" x14ac:dyDescent="0.25">
       <c r="K14" t="s">
         <v>89</v>
       </c>
@@ -1264,7 +2332,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="15" spans="9:26" x14ac:dyDescent="0.2">
+    <row r="15" spans="11:12" x14ac:dyDescent="0.25">
       <c r="K15" t="s">
         <v>91</v>
       </c>
@@ -1272,7 +2340,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="16" spans="9:26" x14ac:dyDescent="0.2">
+    <row r="16" spans="11:12" x14ac:dyDescent="0.25">
       <c r="K16" t="s">
         <v>93</v>
       </c>
@@ -1280,7 +2348,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="17" spans="11:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="11:12" x14ac:dyDescent="0.25">
       <c r="K17" t="s">
         <v>95</v>
       </c>
@@ -1288,148 +2356,148 @@
         <v>96</v>
       </c>
     </row>
-    <row r="18" spans="11:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K18" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="19" spans="11:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K19" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="20" spans="11:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K20" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="21" spans="11:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K21" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="22" spans="11:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K22" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="23" spans="11:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K23" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="24" spans="11:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K24" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="25" spans="11:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K25" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="26" spans="11:12" x14ac:dyDescent="0.2">
+    <row r="26" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K26" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="27" spans="11:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K27" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="28" spans="11:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K28" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="29" spans="11:12" x14ac:dyDescent="0.2">
+    <row r="29" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K29" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="30" spans="11:12" x14ac:dyDescent="0.2">
+    <row r="30" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K30" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="31" spans="11:12" x14ac:dyDescent="0.2">
+    <row r="31" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K31" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="32" spans="11:12" x14ac:dyDescent="0.2">
+    <row r="32" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K32" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="33" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K33" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="34" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K34" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="35" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="35" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K35" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="36" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="36" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K36" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="37" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K37" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="38" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K38" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="39" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K39" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="40" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="40" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K40" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="41" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="41" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K41" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="42" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K42" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="43" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="43" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K43" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="44" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K44" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="45" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="45" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K45" t="s">
         <v>124</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
 </worksheet>
 </file>
--- a/src/lib/scripts/seed-data/production/angels.xlsx
+++ b/src/lib/scripts/seed-data/production/angels.xlsx
@@ -181,6 +181,28 @@
       <text>
         <r>
           <t xml:space="preserve">Possible values:
+- contact
+- typeform
+- google
+- generic</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AA1" authorId="0">
+      <text>
+        <r>
+          <t xml:space="preserve">Possible values:
+- browser_use
+- browser_base
+- computer_use
+- hyperbrowser</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AB1" authorId="0">
+      <text>
+        <r>
+          <t xml:space="preserve">Possible values:
 - FREE
 - PRO
 - MAX</t>
@@ -192,7 +214,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="135">
   <si>
     <t>first_name</t>
   </si>
@@ -269,6 +291,12 @@
     <t>notes</t>
   </si>
   <si>
+    <t>form_type</t>
+  </si>
+  <si>
+    <t>browser_system</t>
+  </si>
+  <si>
     <t>visibility_level</t>
   </si>
   <si>
@@ -299,6 +327,12 @@
     <t>pitch_deck</t>
   </si>
   <si>
+    <t>contact</t>
+  </si>
+  <si>
+    <t>browser_use</t>
+  </si>
+  <si>
     <t>FREE</t>
   </si>
   <si>
@@ -326,6 +360,12 @@
     <t>video</t>
   </si>
   <si>
+    <t>typeform</t>
+  </si>
+  <si>
+    <t>browser_base</t>
+  </si>
+  <si>
     <t>PRO</t>
   </si>
   <si>
@@ -356,6 +396,12 @@
     <t>financial_projections</t>
   </si>
   <si>
+    <t>google</t>
+  </si>
+  <si>
+    <t>computer_use</t>
+  </si>
+  <si>
     <t>MAX</t>
   </si>
   <si>
@@ -378,6 +424,12 @@
   </si>
   <si>
     <t>business_plan</t>
+  </si>
+  <si>
+    <t>generic</t>
+  </si>
+  <si>
+    <t>hyperbrowser</t>
   </si>
   <si>
     <t>100K-250K</t>
@@ -947,13 +999,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z1000"/>
+  <dimension ref="A1:AB1000"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
-    <col min="1" max="26" width="25" customWidth="1"/>
+    <col min="1" max="28" width="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1032,1008 +1084,1026 @@
       <c r="Z1" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="2" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="17" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="18" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="19" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="20" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="21" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="22" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="23" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="24" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="25" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="26" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="27" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="28" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="29" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="30" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="31" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="33" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="34" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="35" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="36" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="37" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="38" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="39" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="40" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="41" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="42" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="43" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="44" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="45" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="46" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="47" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="48" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="49" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="50" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="51" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="52" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="53" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="54" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="55" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="56" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="57" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="58" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="59" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="60" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="61" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="62" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="63" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="64" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="65" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="66" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="67" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="68" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="69" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="70" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="71" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="72" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="73" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="74" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="75" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="76" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="77" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="78" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="79" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="80" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="81" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="82" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="83" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="84" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="85" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="86" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="87" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="88" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="89" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="90" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="91" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="92" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="93" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="94" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="95" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="96" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="97" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="98" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="99" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="100" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="101" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="102" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="103" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="104" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="105" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="106" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="107" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="108" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="109" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="110" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="111" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="112" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="113" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="114" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="115" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="116" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="117" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="118" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="119" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="120" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="121" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="122" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="123" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="124" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="125" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="126" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="127" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="128" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="129" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="130" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="131" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="132" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="133" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="134" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="135" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="136" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="137" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="138" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="139" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="140" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="141" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="142" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="143" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="144" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="145" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="146" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="147" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="148" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="149" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="150" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="151" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="152" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="153" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="154" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="155" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="156" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="157" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="158" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="159" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="160" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="161" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="162" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="163" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="164" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="165" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="166" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="167" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="168" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="169" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="170" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="171" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="172" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="173" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="174" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="175" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="176" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="177" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="178" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="179" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="180" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="181" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="182" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="183" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="184" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="185" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="186" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="187" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="188" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="189" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="190" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="191" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="192" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="193" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="194" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="195" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="196" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="197" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="198" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="199" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="200" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="201" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="202" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="203" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="204" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="205" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="206" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="207" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="208" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="209" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="210" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="211" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="212" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="213" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="214" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="215" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="216" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="217" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="218" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="219" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="220" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="221" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="222" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="223" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="224" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="225" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="226" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="227" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="228" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="229" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="230" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="231" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="232" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="233" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="234" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="235" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="236" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="237" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="238" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="239" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="240" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="241" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="242" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="243" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="244" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="245" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="246" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="247" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="248" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="249" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="250" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="251" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="252" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="253" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="254" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="255" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="256" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="257" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="258" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="259" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="260" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="261" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="262" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="263" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="264" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="265" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="266" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="267" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="268" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="269" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="270" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="271" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="272" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="273" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="274" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="275" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="276" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="277" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="278" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="279" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="280" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="281" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="282" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="283" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="284" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="285" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="286" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="287" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="288" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="289" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="290" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="291" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="292" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="293" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="294" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="295" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="296" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="297" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="298" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="299" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="300" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="301" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="302" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="303" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="304" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="305" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="306" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="307" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="308" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="309" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="310" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="311" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="312" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="313" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="314" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="315" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="316" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="317" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="318" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="319" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="320" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="321" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="322" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="323" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="324" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="325" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="326" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="327" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="328" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="329" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="330" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="331" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="332" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="333" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="334" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="335" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="336" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="337" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="338" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="339" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="340" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="341" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="342" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="343" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="344" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="345" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="346" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="347" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="348" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="349" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="350" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="351" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="352" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="353" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="354" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="355" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="356" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="357" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="358" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="359" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="360" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="361" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="362" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="363" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="364" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="365" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="366" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="367" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="368" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="369" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="370" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="371" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="372" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="373" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="374" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="375" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="376" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="377" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="378" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="379" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="380" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="381" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="382" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="383" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="384" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="385" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="386" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="387" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="388" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="389" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="390" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="391" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="392" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="393" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="394" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="395" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="396" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="397" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="398" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="399" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="400" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="401" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="402" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="403" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="404" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="405" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="406" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="407" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="408" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="409" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="410" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="411" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="412" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="413" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="414" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="415" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="416" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="417" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="418" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="419" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="420" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="421" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="422" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="423" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="424" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="425" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="426" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="427" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="428" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="429" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="430" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="431" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="432" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="433" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="434" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="435" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="436" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="437" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="438" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="439" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="440" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="441" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="442" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="443" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="444" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="445" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="446" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="447" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="448" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="449" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="450" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="451" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="452" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="453" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="454" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="455" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="456" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="457" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="458" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="459" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="460" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="461" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="462" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="463" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="464" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="465" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="466" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="467" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="468" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="469" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="470" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="471" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="472" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="473" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="474" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="475" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="476" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="477" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="478" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="479" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="480" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="481" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="482" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="483" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="484" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="485" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="486" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="487" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="488" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="489" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="490" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="491" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="492" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="493" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="494" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="495" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="496" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="497" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="498" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="499" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="500" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="501" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="502" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="503" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="504" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="505" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="506" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="507" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="508" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="509" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="510" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="511" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="512" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="513" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="514" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="515" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="516" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="517" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="518" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="519" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="520" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="521" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="522" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="523" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="524" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="525" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="526" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="527" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="528" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="529" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="530" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="531" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="532" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="533" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="534" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="535" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="536" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="537" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="538" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="539" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="540" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="541" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="542" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="543" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="544" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="545" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="546" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="547" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="548" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="549" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="550" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="551" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="552" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="553" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="554" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="555" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="556" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="557" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="558" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="559" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="560" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="561" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="562" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="563" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="564" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="565" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="566" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="567" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="568" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="569" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="570" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="571" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="572" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="573" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="574" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="575" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="576" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="577" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="578" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="579" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="580" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="581" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="582" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="583" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="584" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="585" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="586" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="587" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="588" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="589" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="590" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="591" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="592" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="593" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="594" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="595" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="596" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="597" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="598" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="599" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="600" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="601" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="602" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="603" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="604" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="605" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="606" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="607" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="608" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="609" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="610" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="611" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="612" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="613" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="614" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="615" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="616" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="617" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="618" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="619" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="620" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="621" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="622" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="623" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="624" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="625" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="626" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="627" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="628" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="629" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="630" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="631" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="632" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="633" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="634" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="635" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="636" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="637" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="638" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="639" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="640" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="641" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="642" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="643" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="644" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="645" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="646" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="647" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="648" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="649" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="650" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="651" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="652" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="653" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="654" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="655" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="656" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="657" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="658" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="659" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="660" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="661" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="662" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="663" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="664" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="665" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="666" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="667" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="668" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="669" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="670" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="671" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="672" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="673" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="674" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="675" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="676" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="677" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="678" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="679" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="680" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="681" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="682" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="683" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="684" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="685" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="686" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="687" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="688" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="689" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="690" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="691" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="692" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="693" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="694" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="695" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="696" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="697" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="698" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="699" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="700" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="701" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="702" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="703" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="704" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="705" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="706" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="707" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="708" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="709" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="710" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="711" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="712" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="713" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="714" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="715" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="716" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="717" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="718" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="719" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="720" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="721" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="722" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="723" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="724" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="725" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="726" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="727" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="728" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="729" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="730" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="731" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="732" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="733" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="734" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="735" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="736" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="737" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="738" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="739" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="740" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="741" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="742" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="743" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="744" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="745" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="746" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="747" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="748" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="749" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="750" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="751" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="752" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="753" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="754" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="755" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="756" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="757" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="758" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="759" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="760" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="761" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="762" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="763" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="764" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="765" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="766" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="767" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="768" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="769" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="770" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="771" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="772" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="773" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="774" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="775" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="776" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="777" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="778" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="779" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="780" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="781" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="782" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="783" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="784" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="785" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="786" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="787" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="788" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="789" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="790" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="791" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="792" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="793" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="794" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="795" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="796" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="797" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="798" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="799" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="800" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="801" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="802" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="803" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="804" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="805" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="806" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="807" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="808" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="809" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="810" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="811" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="812" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="813" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="814" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="815" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="816" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="817" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="818" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="819" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="820" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="821" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="822" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="823" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="824" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="825" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="826" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="827" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="828" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="829" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="830" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="831" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="832" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="833" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="834" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="835" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="836" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="837" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="838" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="839" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="840" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="841" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="842" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="843" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="844" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="845" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="846" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="847" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="848" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="849" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="850" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="851" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="852" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="853" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="854" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="855" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="856" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="857" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="858" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="859" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="860" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="861" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="862" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="863" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="864" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="865" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="866" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="867" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="868" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="869" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="870" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="871" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="872" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="873" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="874" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="875" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="876" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="877" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="878" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="879" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="880" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="881" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="882" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="883" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="884" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="885" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="886" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="887" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="888" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="889" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="890" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="891" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="892" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="893" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="894" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="895" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="896" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="897" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="898" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="899" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="900" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="901" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="902" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="903" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="904" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="905" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="906" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="907" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="908" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="909" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="910" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="911" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="912" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="913" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="914" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="915" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="916" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="917" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="918" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="919" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="920" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="921" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="922" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="923" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="924" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="925" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="926" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="927" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="928" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="929" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="930" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="931" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="932" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="933" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="934" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="935" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="936" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="937" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="938" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="939" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="940" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="941" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="942" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="943" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="944" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="945" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="946" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="947" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="948" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="949" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="950" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="951" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="952" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="953" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="954" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="955" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="956" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="957" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="958" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="959" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="960" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="961" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="962" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="963" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="964" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="965" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="966" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="967" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="968" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="969" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="970" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="971" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="972" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="973" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="974" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="975" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="976" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="977" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="978" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="979" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="980" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="981" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="982" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="983" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="984" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="985" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="986" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="987" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="988" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="989" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="990" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="991" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="992" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="993" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="994" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="995" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="996" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="997" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="998" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="999" spans="9:26" x14ac:dyDescent="0.25"/>
-    <row r="1000" spans="9:26" x14ac:dyDescent="0.25"/>
+      <c r="AA1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="17" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="18" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="19" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="20" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="21" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="23" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="33" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="34" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="35" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="36" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="37" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="38" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="39" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="40" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="41" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="42" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="43" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="44" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="45" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="46" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="47" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="48" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="49" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="50" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="51" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="52" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="53" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="54" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="55" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="56" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="57" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="58" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="59" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="60" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="61" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="62" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="63" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="64" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="65" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="66" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="67" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="68" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="69" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="70" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="71" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="72" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="73" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="74" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="75" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="76" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="77" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="78" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="79" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="80" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="81" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="82" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="83" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="84" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="85" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="86" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="87" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="88" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="89" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="90" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="91" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="92" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="93" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="94" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="95" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="96" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="97" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="98" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="99" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="100" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="101" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="102" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="103" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="104" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="105" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="106" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="107" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="108" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="109" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="110" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="111" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="112" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="113" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="114" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="115" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="116" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="117" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="118" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="119" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="120" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="121" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="122" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="123" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="124" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="125" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="126" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="127" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="128" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="129" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="130" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="131" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="132" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="133" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="134" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="135" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="136" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="137" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="138" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="139" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="140" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="141" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="142" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="143" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="144" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="145" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="146" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="147" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="148" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="149" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="150" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="151" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="152" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="153" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="154" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="155" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="156" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="157" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="158" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="159" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="160" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="161" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="162" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="163" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="164" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="165" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="166" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="167" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="168" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="169" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="170" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="171" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="172" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="173" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="174" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="175" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="176" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="177" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="178" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="179" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="180" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="181" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="182" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="183" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="184" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="185" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="186" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="187" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="188" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="189" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="190" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="191" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="192" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="193" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="194" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="195" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="196" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="197" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="198" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="199" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="200" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="201" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="202" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="203" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="204" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="205" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="206" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="207" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="208" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="209" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="210" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="211" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="212" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="213" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="214" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="215" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="216" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="217" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="218" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="219" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="220" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="221" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="222" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="223" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="224" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="225" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="226" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="227" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="228" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="229" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="230" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="231" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="232" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="233" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="234" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="235" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="236" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="237" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="238" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="239" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="240" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="241" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="242" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="243" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="244" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="245" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="246" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="247" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="248" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="249" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="250" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="251" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="252" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="253" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="254" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="255" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="256" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="257" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="258" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="259" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="260" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="261" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="262" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="263" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="264" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="265" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="266" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="267" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="268" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="269" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="270" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="271" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="272" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="273" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="274" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="275" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="276" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="277" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="278" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="279" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="280" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="281" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="282" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="283" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="284" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="285" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="286" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="287" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="288" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="289" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="290" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="291" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="292" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="293" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="294" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="295" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="296" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="297" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="298" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="299" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="300" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="301" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="302" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="303" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="304" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="305" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="306" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="307" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="308" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="309" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="310" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="311" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="312" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="313" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="314" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="315" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="316" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="317" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="318" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="319" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="320" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="321" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="322" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="323" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="324" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="325" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="326" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="327" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="328" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="329" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="330" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="331" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="332" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="333" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="334" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="335" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="336" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="337" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="338" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="339" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="340" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="341" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="342" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="343" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="344" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="345" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="346" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="347" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="348" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="349" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="350" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="351" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="352" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="353" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="354" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="355" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="356" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="357" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="358" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="359" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="360" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="361" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="362" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="363" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="364" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="365" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="366" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="367" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="368" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="369" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="370" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="371" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="372" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="373" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="374" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="375" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="376" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="377" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="378" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="379" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="380" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="381" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="382" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="383" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="384" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="385" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="386" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="387" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="388" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="389" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="390" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="391" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="392" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="393" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="394" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="395" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="396" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="397" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="398" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="399" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="400" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="401" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="402" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="403" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="404" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="405" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="406" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="407" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="408" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="409" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="410" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="411" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="412" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="413" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="414" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="415" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="416" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="417" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="418" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="419" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="420" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="421" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="422" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="423" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="424" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="425" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="426" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="427" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="428" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="429" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="430" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="431" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="432" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="433" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="434" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="435" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="436" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="437" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="438" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="439" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="440" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="441" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="442" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="443" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="444" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="445" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="446" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="447" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="448" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="449" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="450" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="451" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="452" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="453" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="454" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="455" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="456" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="457" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="458" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="459" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="460" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="461" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="462" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="463" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="464" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="465" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="466" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="467" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="468" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="469" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="470" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="471" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="472" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="473" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="474" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="475" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="476" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="477" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="478" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="479" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="480" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="481" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="482" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="483" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="484" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="485" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="486" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="487" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="488" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="489" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="490" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="491" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="492" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="493" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="494" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="495" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="496" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="497" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="498" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="499" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="500" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="501" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="502" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="503" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="504" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="505" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="506" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="507" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="508" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="509" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="510" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="511" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="512" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="513" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="514" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="515" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="516" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="517" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="518" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="519" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="520" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="521" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="522" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="523" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="524" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="525" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="526" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="527" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="528" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="529" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="530" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="531" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="532" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="533" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="534" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="535" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="536" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="537" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="538" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="539" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="540" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="541" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="542" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="543" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="544" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="545" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="546" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="547" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="548" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="549" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="550" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="551" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="552" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="553" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="554" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="555" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="556" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="557" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="558" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="559" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="560" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="561" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="562" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="563" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="564" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="565" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="566" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="567" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="568" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="569" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="570" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="571" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="572" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="573" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="574" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="575" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="576" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="577" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="578" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="579" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="580" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="581" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="582" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="583" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="584" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="585" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="586" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="587" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="588" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="589" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="590" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="591" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="592" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="593" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="594" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="595" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="596" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="597" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="598" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="599" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="600" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="601" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="602" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="603" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="604" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="605" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="606" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="607" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="608" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="609" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="610" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="611" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="612" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="613" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="614" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="615" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="616" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="617" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="618" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="619" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="620" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="621" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="622" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="623" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="624" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="625" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="626" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="627" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="628" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="629" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="630" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="631" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="632" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="633" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="634" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="635" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="636" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="637" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="638" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="639" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="640" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="641" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="642" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="643" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="644" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="645" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="646" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="647" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="648" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="649" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="650" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="651" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="652" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="653" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="654" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="655" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="656" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="657" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="658" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="659" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="660" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="661" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="662" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="663" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="664" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="665" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="666" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="667" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="668" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="669" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="670" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="671" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="672" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="673" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="674" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="675" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="676" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="677" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="678" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="679" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="680" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="681" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="682" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="683" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="684" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="685" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="686" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="687" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="688" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="689" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="690" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="691" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="692" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="693" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="694" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="695" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="696" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="697" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="698" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="699" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="700" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="701" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="702" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="703" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="704" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="705" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="706" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="707" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="708" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="709" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="710" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="711" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="712" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="713" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="714" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="715" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="716" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="717" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="718" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="719" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="720" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="721" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="722" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="723" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="724" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="725" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="726" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="727" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="728" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="729" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="730" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="731" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="732" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="733" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="734" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="735" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="736" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="737" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="738" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="739" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="740" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="741" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="742" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="743" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="744" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="745" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="746" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="747" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="748" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="749" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="750" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="751" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="752" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="753" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="754" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="755" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="756" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="757" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="758" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="759" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="760" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="761" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="762" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="763" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="764" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="765" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="766" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="767" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="768" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="769" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="770" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="771" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="772" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="773" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="774" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="775" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="776" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="777" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="778" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="779" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="780" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="781" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="782" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="783" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="784" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="785" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="786" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="787" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="788" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="789" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="790" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="791" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="792" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="793" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="794" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="795" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="796" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="797" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="798" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="799" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="800" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="801" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="802" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="803" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="804" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="805" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="806" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="807" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="808" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="809" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="810" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="811" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="812" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="813" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="814" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="815" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="816" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="817" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="818" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="819" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="820" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="821" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="822" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="823" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="824" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="825" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="826" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="827" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="828" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="829" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="830" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="831" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="832" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="833" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="834" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="835" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="836" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="837" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="838" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="839" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="840" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="841" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="842" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="843" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="844" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="845" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="846" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="847" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="848" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="849" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="850" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="851" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="852" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="853" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="854" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="855" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="856" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="857" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="858" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="859" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="860" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="861" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="862" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="863" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="864" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="865" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="866" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="867" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="868" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="869" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="870" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="871" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="872" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="873" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="874" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="875" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="876" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="877" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="878" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="879" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="880" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="881" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="882" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="883" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="884" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="885" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="886" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="887" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="888" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="889" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="890" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="891" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="892" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="893" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="894" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="895" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="896" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="897" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="898" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="899" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="900" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="901" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="902" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="903" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="904" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="905" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="906" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="907" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="908" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="909" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="910" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="911" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="912" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="913" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="914" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="915" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="916" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="917" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="918" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="919" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="920" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="921" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="922" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="923" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="924" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="925" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="926" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="927" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="928" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="929" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="930" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="931" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="932" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="933" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="934" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="935" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="936" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="937" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="938" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="939" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="940" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="941" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="942" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="943" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="944" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="945" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="946" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="947" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="948" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="949" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="950" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="951" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="952" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="953" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="954" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="955" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="956" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="957" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="958" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="959" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="960" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="961" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="962" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="963" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="964" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="965" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="966" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="967" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="968" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="969" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="970" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="971" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="972" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="973" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="974" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="975" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="976" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="977" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="978" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="979" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="980" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="981" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="982" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="983" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="984" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="985" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="986" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="987" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="988" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="989" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="990" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="991" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="992" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="993" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="994" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="995" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="996" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="997" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="998" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="999" spans="9:28" x14ac:dyDescent="0.25"/>
+    <row r="1000" spans="9:28" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <dataValidations count="20">
+  <dataValidations count="24">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorStyle="stop" errorTitle="Guidance" error="Please select a value from the dropdown list." sqref="AA10:AA1000">
+      <formula1>ValidationData!$AA$1:$AA$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorStyle="stop" errorTitle="Guidance" error="Please select a value from the dropdown list." sqref="AA2:AA1000">
+      <formula1>ValidationData!$AA$1:$AA$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorStyle="stop" errorTitle="Guidance" error="Please select a value from the dropdown list." sqref="AB10:AB1000">
+      <formula1>ValidationData!$AB$1:$AB$3</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorStyle="stop" errorTitle="Guidance" error="Please select a value from the dropdown list." sqref="AB2:AB1000">
+      <formula1>ValidationData!$AB$1:$AB$3</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorStyle="stop" errorTitle="Guidance" error="Please select a value from the dropdown list." sqref="I10:I1000">
       <formula1>ValidationData!$I$1:$I$8</formula1>
     </dataValidation>
@@ -2089,10 +2159,10 @@
       <formula1>ValidationData!$U$1:$U$5</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorStyle="stop" errorTitle="Guidance" error="Please select a value from the dropdown list." sqref="Z10:Z1000">
-      <formula1>ValidationData!$Z$1:$Z$3</formula1>
+      <formula1>ValidationData!$Z$1:$Z$4</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorStyle="stop" errorTitle="Guidance" error="Please select a value from the dropdown list." sqref="Z2:Z1000">
-      <formula1>ValidationData!$Z$1:$Z$3</formula1>
+      <formula1>ValidationData!$Z$1:$Z$4</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2103,397 +2173,421 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="I1:Z45"/>
+  <dimension ref="I1:AB45"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
-    <row r="1" spans="9:26" x14ac:dyDescent="0.25">
+    <row r="1" spans="9:28" x14ac:dyDescent="0.25">
       <c r="I1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="K1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="M1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="T1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="U1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="Z1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="9:26" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="9:28" x14ac:dyDescent="0.25">
       <c r="I2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="J2" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="K2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="L2" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="M2" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="P2" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="Q2" t="s">
         <v>2</v>
       </c>
       <c r="T2" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="U2" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="Z2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="3" spans="9:26" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="9:28" x14ac:dyDescent="0.25">
       <c r="I3" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="J3" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="K3" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="L3" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="M3" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="P3" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="Q3" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="T3" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="U3" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="Z3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="4" spans="9:21" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="9:27" x14ac:dyDescent="0.25">
       <c r="I4" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="J4" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="K4" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="L4" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="M4" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="P4" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="U4" t="s">
-        <v>61</v>
+        <v>69</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>70</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="9:21" x14ac:dyDescent="0.25">
       <c r="I5" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="J5" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="K5" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="L5" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="P5" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="U5" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I6" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="J6" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="K6" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="L6" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I7" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="J7" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="K7" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="L7" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I8" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="K8" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="L8" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9" spans="11:12" x14ac:dyDescent="0.25">
       <c r="K9" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="L9" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10" spans="11:12" x14ac:dyDescent="0.25">
       <c r="K10" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="L10" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
     </row>
     <row r="11" spans="11:12" x14ac:dyDescent="0.25">
       <c r="K11" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="L11" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
     </row>
     <row r="12" spans="11:12" x14ac:dyDescent="0.25">
       <c r="K12" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="L12" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
     </row>
     <row r="13" spans="11:12" x14ac:dyDescent="0.25">
       <c r="K13" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="L13" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
     </row>
     <row r="14" spans="11:12" x14ac:dyDescent="0.25">
       <c r="K14" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="L14" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15" spans="11:12" x14ac:dyDescent="0.25">
       <c r="K15" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="L15" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
     </row>
     <row r="16" spans="11:12" x14ac:dyDescent="0.25">
       <c r="K16" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="L16" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
     </row>
     <row r="17" spans="11:12" x14ac:dyDescent="0.25">
       <c r="K17" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="L17" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K18" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
     </row>
     <row r="19" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K19" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
     </row>
     <row r="20" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K20" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
     </row>
     <row r="21" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K21" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
     </row>
     <row r="22" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K22" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
     </row>
     <row r="23" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K23" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
     </row>
     <row r="24" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K24" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
     </row>
     <row r="25" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K25" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
     </row>
     <row r="26" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K26" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
     </row>
     <row r="27" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K27" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
     </row>
     <row r="28" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K28" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
     </row>
     <row r="29" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K29" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
     </row>
     <row r="30" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K30" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
     </row>
     <row r="31" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K31" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
     </row>
     <row r="32" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K32" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
     </row>
     <row r="33" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K33" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
     </row>
     <row r="34" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K34" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
     </row>
     <row r="35" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K35" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
     </row>
     <row r="36" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K36" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
     </row>
     <row r="37" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K37" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
     </row>
     <row r="38" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K38" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
     </row>
     <row r="39" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K39" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
     </row>
     <row r="40" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K40" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
     </row>
     <row r="41" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K41" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
     </row>
     <row r="42" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K42" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
     </row>
     <row r="43" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K43" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
     </row>
     <row r="44" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K44" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
     </row>
     <row r="45" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K45" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>
